--- a/ARIS-110x/B14 Районная/Протокол 101_104 B14 Районная.xlsx
+++ b/ARIS-110x/B14 Районная/Протокол 101_104 B14 Районная.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\other\ARIS\ARIS-110x\B14 Районная\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\AVANT\Current Software\ARIS\ARIS-110x\B14 Районная\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="469">
   <si>
     <t>№101</t>
   </si>
@@ -410,9 +410,6 @@
     <t xml:space="preserve">K400-088-В </t>
   </si>
   <si>
-    <t xml:space="preserve">K400-088-ВОЛС </t>
-  </si>
-  <si>
     <t>ПЕРЕДАТЧИК</t>
   </si>
   <si>
@@ -923,9 +920,6 @@
     <t>Нет блока БСК</t>
   </si>
   <si>
-    <t>Нет КС</t>
-  </si>
-  <si>
     <t>Нет КЧ 5 сек</t>
   </si>
   <si>
@@ -1077,24 +1071,6 @@
   </si>
   <si>
     <t>Сниж.ур. КЧ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Неиспр.чт. 2RAM</t>
-  </si>
-  <si>
-    <t>Отказ резерв.лин</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Кольцо 1 наруш.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Кольцо 2 наруш.</t>
-  </si>
-  <si>
-    <t>Удал.ПРД неиспр</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Удал.ПРМ неиспр</t>
   </si>
   <si>
     <t>Неиспр.вход. ком</t>
@@ -1533,7 +1509,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1600,10 +1576,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1911,8 +1890,8 @@
   <dimension ref="A1:H364"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A321" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C300" sqref="C300"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1932,50 +1911,50 @@
         <v>0</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>470</v>
-      </c>
-      <c r="C1" s="33" t="s">
-        <v>132</v>
+        <v>462</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>131</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>128</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>128</v>
       </c>
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="31" t="s">
-        <v>312</v>
-      </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
+      <c r="B2" s="33" t="s">
+        <v>310</v>
+      </c>
+      <c r="C2" s="33"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
       <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="21" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C3" s="2">
         <v>2000</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="E3" s="2">
         <f>C3+1000</f>
         <v>3000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="G3" s="6"/>
     </row>
@@ -2324,14 +2303,14 @@
         <v>2017</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="E20" s="4">
         <f t="shared" si="0"/>
         <v>3017</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="G20" s="6"/>
     </row>
@@ -2345,14 +2324,14 @@
         <v>2018</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="E21" s="4">
         <f t="shared" si="0"/>
         <v>3018</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="G21" s="6"/>
     </row>
@@ -2366,14 +2345,14 @@
         <v>2019</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="E22" s="4">
         <f t="shared" si="0"/>
         <v>3019</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="G22" s="6"/>
     </row>
@@ -2387,14 +2366,14 @@
         <v>2020</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="E23" s="4">
         <f t="shared" si="0"/>
         <v>3020</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="G23" s="6"/>
     </row>
@@ -2408,14 +2387,14 @@
         <v>2021</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="E24" s="4">
         <f t="shared" si="0"/>
         <v>3021</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="G24" s="6"/>
     </row>
@@ -2429,14 +2408,14 @@
         <v>2022</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="E25" s="4">
         <f t="shared" si="0"/>
         <v>3022</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="G25" s="6"/>
     </row>
@@ -2450,14 +2429,14 @@
         <v>2023</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="E26" s="4">
         <f t="shared" si="0"/>
         <v>3023</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="G26" s="6"/>
     </row>
@@ -2471,14 +2450,14 @@
         <v>2024</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="E27" s="4">
         <f t="shared" si="0"/>
         <v>3024</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="G27" s="6"/>
     </row>
@@ -2492,14 +2471,14 @@
         <v>2025</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="E28" s="4">
         <f t="shared" si="0"/>
         <v>3025</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="G28" s="6"/>
     </row>
@@ -2513,14 +2492,14 @@
         <v>2026</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="E29" s="4">
         <f t="shared" si="0"/>
         <v>3026</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="G29" s="6"/>
     </row>
@@ -2534,14 +2513,14 @@
         <v>2027</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="E30" s="4">
         <f t="shared" si="0"/>
         <v>3027</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="G30" s="6"/>
     </row>
@@ -2555,14 +2534,14 @@
         <v>2028</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="E31" s="4">
         <f t="shared" si="0"/>
         <v>3028</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="G31" s="6"/>
     </row>
@@ -2576,14 +2555,14 @@
         <v>2029</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="E32" s="4">
         <f t="shared" si="0"/>
         <v>3029</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="G32" s="6"/>
     </row>
@@ -2597,14 +2576,14 @@
         <v>2030</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="E33" s="4">
         <f t="shared" si="0"/>
         <v>3030</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="G33" s="6"/>
     </row>
@@ -2618,14 +2597,14 @@
         <v>2031</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="E34" s="4">
         <f t="shared" si="0"/>
         <v>3031</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="G34" s="6"/>
     </row>
@@ -2639,14 +2618,14 @@
         <v>2032</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="E35" s="4">
         <f t="shared" si="0"/>
         <v>3032</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="G35" s="6"/>
     </row>
@@ -2660,18 +2639,18 @@
         <v>2101</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="E36" s="4">
         <f>C36+1000</f>
         <v>3101</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="G36" s="6"/>
       <c r="H36" s="9" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -2684,18 +2663,18 @@
         <v>2102</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="E37" s="4">
         <f t="shared" ref="E37:E45" si="2">C37+1000</f>
         <v>3102</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="G37" s="6"/>
       <c r="H37" s="9" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -2708,18 +2687,18 @@
         <v>2103</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="E38" s="4">
         <f t="shared" si="2"/>
         <v>3103</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="G38" s="6"/>
       <c r="H38" s="9" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -2743,7 +2722,7 @@
       </c>
       <c r="G39" s="6"/>
       <c r="H39" s="9" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -2767,7 +2746,7 @@
       </c>
       <c r="G40" s="6"/>
       <c r="H40" s="9" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -2780,18 +2759,18 @@
         <v>2106</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="E41" s="4">
         <f t="shared" si="2"/>
         <v>3106</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="G41" s="6"/>
       <c r="H41" s="9" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -2804,18 +2783,18 @@
         <v>2107</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="E42" s="4">
         <f t="shared" si="2"/>
         <v>3107</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="G42" s="6"/>
       <c r="H42" s="27" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -2828,18 +2807,18 @@
         <v>2108</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="E43" s="4">
         <f t="shared" si="2"/>
         <v>3108</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="G43" s="6"/>
       <c r="H43" s="27" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -2852,18 +2831,18 @@
         <v>2109</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="E44" s="4">
         <f t="shared" si="2"/>
         <v>3109</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="G44" s="6"/>
       <c r="H44" s="27" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -2874,18 +2853,18 @@
         <v>2110</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="E45" s="4">
         <f t="shared" si="2"/>
         <v>3110</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="G45" s="6"/>
       <c r="H45" s="9" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -3031,14 +3010,14 @@
         <v>2301</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E52" s="4">
         <f>E3+301</f>
         <v>3301</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G52" s="6"/>
     </row>
@@ -3055,14 +3034,14 @@
         <v>2302</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E53" s="4">
         <f>E52+1</f>
         <v>3302</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G53" s="6"/>
     </row>
@@ -3079,14 +3058,14 @@
         <v>2303</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E54" s="4">
         <f t="shared" ref="E54" si="13">E53+1</f>
         <v>3303</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G54" s="6"/>
     </row>
@@ -3103,14 +3082,14 @@
         <v>2304</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E55" s="4">
         <f t="shared" ref="E55" si="15">E54+1</f>
         <v>3304</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G55" s="6"/>
     </row>
@@ -3127,14 +3106,14 @@
         <v>2305</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E56" s="4">
         <f t="shared" ref="E56" si="17">E55+1</f>
         <v>3305</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G56" s="6"/>
     </row>
@@ -3223,14 +3202,14 @@
         <v>2309</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E60" s="4">
         <f t="shared" ref="E60" si="25">E59+1</f>
         <v>3309</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>33</v>
+        <v>316</v>
       </c>
       <c r="G60" s="6"/>
     </row>
@@ -3247,14 +3226,14 @@
         <v>2310</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E61" s="4">
         <f t="shared" ref="E61" si="27">E60+1</f>
         <v>3310</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>352</v>
+        <v>317</v>
       </c>
       <c r="G61" s="6"/>
     </row>
@@ -3295,14 +3274,14 @@
         <v>2312</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E63" s="4">
         <f t="shared" ref="E63" si="31">E62+1</f>
         <v>3312</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>33</v>
+        <v>318</v>
       </c>
       <c r="G63" s="6"/>
     </row>
@@ -3319,14 +3298,14 @@
         <v>2313</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E64" s="4">
         <f t="shared" ref="E64" si="33">E63+1</f>
         <v>3313</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>33</v>
+        <v>319</v>
       </c>
       <c r="G64" s="6"/>
     </row>
@@ -3415,14 +3394,14 @@
         <v>2317</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E68" s="4">
         <f t="shared" ref="E68" si="41">E67+1</f>
         <v>3317</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G68" s="6"/>
     </row>
@@ -3446,7 +3425,7 @@
         <v>3318</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>353</v>
+        <v>33</v>
       </c>
       <c r="G69" s="6"/>
     </row>
@@ -3463,14 +3442,14 @@
         <v>2319</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E70" s="4">
         <f t="shared" ref="E70" si="45">E69+1</f>
         <v>3319</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>354</v>
+        <v>321</v>
       </c>
       <c r="G70" s="6"/>
     </row>
@@ -3487,14 +3466,14 @@
         <v>2320</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E71" s="4">
         <f t="shared" ref="E71" si="47">E70+1</f>
         <v>3320</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>355</v>
+        <v>322</v>
       </c>
       <c r="G71" s="6"/>
     </row>
@@ -3511,14 +3490,14 @@
         <v>2321</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E72" s="4">
         <f t="shared" ref="E72" si="49">E71+1</f>
         <v>3321</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>33</v>
+        <v>323</v>
       </c>
       <c r="G72" s="6"/>
     </row>
@@ -3542,7 +3521,7 @@
         <v>3322</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>356</v>
+        <v>33</v>
       </c>
       <c r="G73" s="6"/>
     </row>
@@ -3566,7 +3545,7 @@
         <v>3323</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>357</v>
+        <v>33</v>
       </c>
       <c r="G74" s="6"/>
     </row>
@@ -3791,15 +3770,15 @@
         <v>33</v>
       </c>
       <c r="B84" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E84" s="7"/>
       <c r="F84" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G84" s="6"/>
     </row>
@@ -3833,21 +3812,21 @@
         <v>401</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C86" s="4">
         <f>C85+1</f>
         <v>2401</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E86" s="4">
         <f>E85+1</f>
         <v>3401</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G86" s="6"/>
     </row>
@@ -3857,21 +3836,21 @@
         <v>402</v>
       </c>
       <c r="B87" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C87" s="4">
         <f t="shared" ref="C87" si="73">C86+1</f>
         <v>2402</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E87" s="4">
         <f t="shared" ref="E87" si="74">E86+1</f>
         <v>3402</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G87" s="6"/>
     </row>
@@ -4025,21 +4004,21 @@
         <v>409</v>
       </c>
       <c r="B94" s="19" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C94" s="4">
         <f t="shared" ref="C94" si="87">C93+1</f>
         <v>2409</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E94" s="4">
         <f t="shared" ref="E94" si="88">E93+1</f>
         <v>3409</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G94" s="6"/>
     </row>
@@ -4049,21 +4028,21 @@
         <v>410</v>
       </c>
       <c r="B95" s="19" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C95" s="4">
         <f t="shared" ref="C95" si="89">C94+1</f>
         <v>2410</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E95" s="4">
         <f t="shared" ref="E95" si="90">E94+1</f>
         <v>3410</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G95" s="6"/>
     </row>
@@ -4073,21 +4052,21 @@
         <v>411</v>
       </c>
       <c r="B96" s="19" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C96" s="4">
         <f t="shared" ref="C96" si="91">C95+1</f>
         <v>2411</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E96" s="4">
         <f t="shared" ref="E96" si="92">E95+1</f>
         <v>3411</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="G96" s="6"/>
     </row>
@@ -4097,21 +4076,21 @@
         <v>412</v>
       </c>
       <c r="B97" s="19" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C97" s="4">
         <f t="shared" ref="C97" si="93">C96+1</f>
         <v>2412</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="E97" s="4">
         <f t="shared" ref="E97" si="94">E96+1</f>
         <v>3412</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="G97" s="6"/>
     </row>
@@ -4217,7 +4196,7 @@
         <v>417</v>
       </c>
       <c r="B102" s="19" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C102" s="4">
         <f t="shared" ref="C102" si="103">C101+1</f>
@@ -4241,21 +4220,21 @@
         <v>418</v>
       </c>
       <c r="B103" s="19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C103" s="4">
         <f t="shared" ref="C103" si="105">C102+1</f>
         <v>2418</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E103" s="4">
         <f t="shared" ref="E103" si="106">E102+1</f>
         <v>3418</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>33</v>
+        <v>328</v>
       </c>
       <c r="G103" s="6"/>
     </row>
@@ -4265,21 +4244,21 @@
         <v>419</v>
       </c>
       <c r="B104" s="19" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C104" s="4">
         <f t="shared" ref="C104" si="107">C103+1</f>
         <v>2419</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E104" s="4">
         <f t="shared" ref="E104" si="108">E103+1</f>
         <v>3419</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>33</v>
+        <v>329</v>
       </c>
       <c r="G104" s="6"/>
     </row>
@@ -4612,21 +4591,21 @@
         <v>450</v>
       </c>
       <c r="B119" s="19" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="C119" s="4">
         <f>C85+50</f>
         <v>2450</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="E119" s="4">
         <f>E85+50</f>
         <v>3450</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="G119" s="6"/>
     </row>
@@ -4636,21 +4615,21 @@
         <v>451</v>
       </c>
       <c r="B120" s="19" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="C120" s="4">
         <f>C119+1</f>
         <v>2451</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="E120" s="4">
         <f>E119+1</f>
         <v>3451</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="G120" s="6"/>
     </row>
@@ -4660,21 +4639,21 @@
         <v>452</v>
       </c>
       <c r="B121" s="19" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="C121" s="4">
         <f t="shared" ref="C121" si="136">C120+1</f>
         <v>2452</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="E121" s="4">
         <f t="shared" ref="E121" si="137">E120+1</f>
         <v>3452</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="G121" s="6"/>
     </row>
@@ -4684,21 +4663,21 @@
         <v>453</v>
       </c>
       <c r="B122" s="19" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="C122" s="4">
         <f t="shared" ref="C122" si="138">C121+1</f>
         <v>2453</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="E122" s="4">
         <f t="shared" ref="E122" si="139">E121+1</f>
         <v>3453</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="G122" s="6"/>
     </row>
@@ -4708,21 +4687,21 @@
         <v>454</v>
       </c>
       <c r="B123" s="19" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="C123" s="4">
         <f t="shared" ref="C123" si="140">C122+1</f>
         <v>2454</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="E123" s="4">
         <f t="shared" ref="E123" si="141">E122+1</f>
         <v>3454</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="G123" s="6"/>
     </row>
@@ -4732,21 +4711,21 @@
         <v>455</v>
       </c>
       <c r="B124" s="19" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="C124" s="4">
         <f t="shared" ref="C124" si="142">C123+1</f>
         <v>2455</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="E124" s="4">
         <f t="shared" ref="E124" si="143">E123+1</f>
         <v>3455</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="G124" s="6"/>
     </row>
@@ -4756,21 +4735,21 @@
         <v>456</v>
       </c>
       <c r="B125" s="19" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="C125" s="4">
         <f t="shared" ref="C125" si="144">C124+1</f>
         <v>2456</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="E125" s="4">
         <f t="shared" ref="E125" si="145">E124+1</f>
         <v>3456</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="G125" s="6"/>
     </row>
@@ -4780,21 +4759,21 @@
         <v>457</v>
       </c>
       <c r="B126" s="19" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="C126" s="4">
         <f t="shared" ref="C126" si="146">C125+1</f>
         <v>2457</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="E126" s="4">
         <f t="shared" ref="E126" si="147">E125+1</f>
         <v>3457</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="G126" s="6"/>
     </row>
@@ -4804,21 +4783,21 @@
         <v>458</v>
       </c>
       <c r="B127" s="19" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="C127" s="4">
         <f t="shared" ref="C127" si="148">C126+1</f>
         <v>2458</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="E127" s="4">
         <f t="shared" ref="E127" si="149">E126+1</f>
         <v>3458</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="G127" s="6"/>
     </row>
@@ -4828,21 +4807,21 @@
         <v>459</v>
       </c>
       <c r="B128" s="19" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="C128" s="4">
         <f t="shared" ref="C128" si="150">C127+1</f>
         <v>2459</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="E128" s="4">
         <f t="shared" ref="E128" si="151">E127+1</f>
         <v>3459</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="G128" s="6"/>
     </row>
@@ -4852,21 +4831,21 @@
         <v>460</v>
       </c>
       <c r="B129" s="19" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="C129" s="4">
         <f t="shared" ref="C129" si="152">C128+1</f>
         <v>2460</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="E129" s="4">
         <f t="shared" ref="E129" si="153">E128+1</f>
         <v>3460</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="G129" s="6"/>
     </row>
@@ -4876,21 +4855,21 @@
         <v>461</v>
       </c>
       <c r="B130" s="19" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="C130" s="4">
         <f t="shared" ref="C130" si="154">C129+1</f>
         <v>2461</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="E130" s="4">
         <f t="shared" ref="E130" si="155">E129+1</f>
         <v>3461</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="G130" s="6"/>
     </row>
@@ -4900,21 +4879,21 @@
         <v>462</v>
       </c>
       <c r="B131" s="19" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="C131" s="4">
         <f t="shared" ref="C131" si="156">C130+1</f>
         <v>2462</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="E131" s="4">
         <f t="shared" ref="E131" si="157">E130+1</f>
         <v>3462</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="G131" s="6"/>
     </row>
@@ -4924,21 +4903,21 @@
         <v>463</v>
       </c>
       <c r="B132" s="19" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="C132" s="4">
         <f t="shared" ref="C132" si="158">C131+1</f>
         <v>2463</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="E132" s="4">
         <f t="shared" ref="E132" si="159">E131+1</f>
         <v>3463</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="G132" s="6"/>
     </row>
@@ -4948,21 +4927,21 @@
         <v>464</v>
       </c>
       <c r="B133" s="19" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="C133" s="4">
         <f t="shared" ref="C133" si="160">C132+1</f>
         <v>2464</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="E133" s="4">
         <f t="shared" ref="E133" si="161">E132+1</f>
         <v>3464</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="G133" s="6"/>
     </row>
@@ -4972,21 +4951,21 @@
         <v>465</v>
       </c>
       <c r="B134" s="19" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="C134" s="4">
-        <f t="shared" ref="C134:C150" si="162">C133+1</f>
+        <f t="shared" ref="C134" si="162">C133+1</f>
         <v>2465</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="E134" s="4">
-        <f t="shared" ref="E134:E150" si="163">E133+1</f>
+        <f t="shared" ref="E134" si="163">E133+1</f>
         <v>3465</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="G134" s="6"/>
     </row>
@@ -4996,7 +4975,7 @@
         <v>466</v>
       </c>
       <c r="B135" s="19" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="C135" s="4"/>
       <c r="D135" s="5"/>
@@ -5010,7 +4989,7 @@
         <v>467</v>
       </c>
       <c r="B136" s="19" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="C136" s="4"/>
       <c r="D136" s="5"/>
@@ -5024,7 +5003,7 @@
         <v>468</v>
       </c>
       <c r="B137" s="19" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C137" s="4"/>
       <c r="D137" s="5"/>
@@ -5038,7 +5017,7 @@
         <v>469</v>
       </c>
       <c r="B138" s="19" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="C138" s="4"/>
       <c r="D138" s="5"/>
@@ -5052,7 +5031,7 @@
         <v>470</v>
       </c>
       <c r="B139" s="19" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="C139" s="4"/>
       <c r="D139" s="5"/>
@@ -5066,7 +5045,7 @@
         <v>471</v>
       </c>
       <c r="B140" s="19" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="C140" s="4"/>
       <c r="D140" s="5"/>
@@ -5080,7 +5059,7 @@
         <v>472</v>
       </c>
       <c r="B141" s="19" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="C141" s="4"/>
       <c r="D141" s="5"/>
@@ -5094,7 +5073,7 @@
         <v>473</v>
       </c>
       <c r="B142" s="19" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="C142" s="4"/>
       <c r="D142" s="5"/>
@@ -5108,7 +5087,7 @@
         <v>474</v>
       </c>
       <c r="B143" s="19" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="C143" s="4"/>
       <c r="D143" s="5"/>
@@ -5122,7 +5101,7 @@
         <v>475</v>
       </c>
       <c r="B144" s="19" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="C144" s="4"/>
       <c r="D144" s="5"/>
@@ -5136,7 +5115,7 @@
         <v>476</v>
       </c>
       <c r="B145" s="19" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="C145" s="4"/>
       <c r="D145" s="5"/>
@@ -5150,7 +5129,7 @@
         <v>477</v>
       </c>
       <c r="B146" s="19" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="C146" s="4"/>
       <c r="D146" s="5"/>
@@ -5164,7 +5143,7 @@
         <v>478</v>
       </c>
       <c r="B147" s="19" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="C147" s="4"/>
       <c r="D147" s="5"/>
@@ -5178,7 +5157,7 @@
         <v>479</v>
       </c>
       <c r="B148" s="19" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="C148" s="4"/>
       <c r="D148" s="5"/>
@@ -5192,7 +5171,7 @@
         <v>480</v>
       </c>
       <c r="B149" s="19" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="C149" s="4"/>
       <c r="D149" s="5"/>
@@ -5206,7 +5185,7 @@
         <v>481</v>
       </c>
       <c r="B150" s="19" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="C150" s="4"/>
       <c r="D150" s="5"/>
@@ -5309,15 +5288,15 @@
         <v>33</v>
       </c>
       <c r="B155" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C155" s="11"/>
       <c r="D155" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E155" s="11"/>
       <c r="F155" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G155" s="15"/>
     </row>
@@ -5351,21 +5330,21 @@
         <v>501</v>
       </c>
       <c r="B157" s="19" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C157" s="4">
         <f>C156+1</f>
         <v>2501</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E157" s="4">
         <f>E156+1</f>
         <v>3501</v>
       </c>
       <c r="F157" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G157" s="6"/>
     </row>
@@ -5375,21 +5354,21 @@
         <v>502</v>
       </c>
       <c r="B158" s="19" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C158" s="4">
         <f t="shared" ref="C158" si="165">C157+1</f>
         <v>2502</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E158" s="4">
         <f t="shared" ref="E158" si="166">E157+1</f>
         <v>3502</v>
       </c>
       <c r="F158" s="5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G158" s="6"/>
     </row>
@@ -5399,14 +5378,14 @@
         <v>503</v>
       </c>
       <c r="B159" s="19" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C159" s="4">
         <f t="shared" ref="C159" si="167">C158+1</f>
         <v>2503</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E159" s="4">
         <f t="shared" ref="E159" si="168">E158+1</f>
@@ -5430,14 +5409,14 @@
         <v>2504</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E160" s="4">
         <f t="shared" ref="E160" si="170">E159+1</f>
         <v>3504</v>
       </c>
       <c r="F160" s="5" t="s">
-        <v>33</v>
+        <v>330</v>
       </c>
       <c r="G160" s="6"/>
     </row>
@@ -5543,21 +5522,21 @@
         <v>509</v>
       </c>
       <c r="B165" s="19" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C165" s="4">
         <f t="shared" ref="C165" si="179">C164+1</f>
         <v>2509</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E165" s="4">
         <f t="shared" ref="E165" si="180">E164+1</f>
         <v>3509</v>
       </c>
       <c r="F165" s="5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G165" s="6"/>
     </row>
@@ -5567,21 +5546,21 @@
         <v>510</v>
       </c>
       <c r="B166" s="19" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C166" s="4">
         <f t="shared" ref="C166" si="181">C165+1</f>
         <v>2510</v>
       </c>
       <c r="D166" s="5" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E166" s="4">
         <f t="shared" ref="E166" si="182">E165+1</f>
         <v>3510</v>
       </c>
       <c r="F166" s="5" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G166" s="6"/>
     </row>
@@ -5591,21 +5570,21 @@
         <v>511</v>
       </c>
       <c r="B167" s="19" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C167" s="4">
         <f t="shared" ref="C167" si="183">C166+1</f>
         <v>2511</v>
       </c>
       <c r="D167" s="5" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E167" s="4">
         <f t="shared" ref="E167" si="184">E166+1</f>
         <v>3511</v>
       </c>
       <c r="F167" s="5" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="G167" s="6"/>
     </row>
@@ -5615,21 +5594,21 @@
         <v>512</v>
       </c>
       <c r="B168" s="19" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C168" s="4">
         <f t="shared" ref="C168" si="185">C167+1</f>
         <v>2512</v>
       </c>
       <c r="D168" s="5" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E168" s="4">
         <f t="shared" ref="E168" si="186">E167+1</f>
         <v>3512</v>
       </c>
       <c r="F168" s="5" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G168" s="6"/>
     </row>
@@ -5735,21 +5714,21 @@
         <v>517</v>
       </c>
       <c r="B173" s="19" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C173" s="4">
         <f t="shared" ref="C173" si="195">C172+1</f>
         <v>2517</v>
       </c>
       <c r="D173" s="5" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E173" s="4">
         <f t="shared" ref="E173" si="196">E172+1</f>
         <v>3517</v>
       </c>
       <c r="F173" s="5" t="s">
-        <v>300</v>
+        <v>335</v>
       </c>
       <c r="G173" s="6"/>
     </row>
@@ -5759,21 +5738,21 @@
         <v>518</v>
       </c>
       <c r="B174" s="19" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C174" s="4">
         <f t="shared" ref="C174" si="197">C173+1</f>
         <v>2518</v>
       </c>
       <c r="D174" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E174" s="4">
         <f t="shared" ref="E174" si="198">E173+1</f>
         <v>3518</v>
       </c>
       <c r="F174" s="5" t="s">
-        <v>33</v>
+        <v>328</v>
       </c>
       <c r="G174" s="6"/>
     </row>
@@ -5783,21 +5762,21 @@
         <v>519</v>
       </c>
       <c r="B175" s="19" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C175" s="4">
         <f t="shared" ref="C175" si="199">C174+1</f>
         <v>2519</v>
       </c>
       <c r="D175" s="5" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E175" s="4">
         <f t="shared" ref="E175" si="200">E174+1</f>
         <v>3519</v>
       </c>
       <c r="F175" s="5" t="s">
-        <v>33</v>
+        <v>336</v>
       </c>
       <c r="G175" s="6"/>
     </row>
@@ -5814,14 +5793,14 @@
         <v>2520</v>
       </c>
       <c r="D176" s="5" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E176" s="4">
         <f t="shared" ref="E176" si="202">E175+1</f>
         <v>3520</v>
       </c>
       <c r="F176" s="5" t="s">
-        <v>33</v>
+        <v>330</v>
       </c>
       <c r="G176" s="6"/>
     </row>
@@ -6140,21 +6119,21 @@
         <v>550</v>
       </c>
       <c r="B190" s="19" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="C190" s="4">
         <f>C156+50</f>
         <v>2550</v>
       </c>
       <c r="D190" s="5" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="E190" s="4">
         <f>E156+50</f>
         <v>3550</v>
       </c>
       <c r="F190" s="5" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="G190" s="6"/>
     </row>
@@ -6164,21 +6143,21 @@
         <v>551</v>
       </c>
       <c r="B191" s="19" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="C191" s="4">
         <f>C190+1</f>
         <v>2551</v>
       </c>
       <c r="D191" s="5" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="E191" s="4">
         <f>E190+1</f>
         <v>3551</v>
       </c>
       <c r="F191" s="5" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="G191" s="6"/>
     </row>
@@ -6188,21 +6167,21 @@
         <v>552</v>
       </c>
       <c r="B192" s="19" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="C192" s="4">
         <f t="shared" ref="C192" si="228">C191+1</f>
         <v>2552</v>
       </c>
       <c r="D192" s="5" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="E192" s="4">
         <f t="shared" ref="E192" si="229">E191+1</f>
         <v>3552</v>
       </c>
       <c r="F192" s="5" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="G192" s="6"/>
     </row>
@@ -6212,21 +6191,21 @@
         <v>553</v>
       </c>
       <c r="B193" s="19" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="C193" s="4">
         <f t="shared" ref="C193" si="230">C192+1</f>
         <v>2553</v>
       </c>
       <c r="D193" s="5" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="E193" s="4">
         <f t="shared" ref="E193" si="231">E192+1</f>
         <v>3553</v>
       </c>
       <c r="F193" s="5" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="G193" s="6"/>
     </row>
@@ -6236,21 +6215,21 @@
         <v>554</v>
       </c>
       <c r="B194" s="19" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="C194" s="4">
         <f t="shared" ref="C194" si="232">C193+1</f>
         <v>2554</v>
       </c>
       <c r="D194" s="5" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="E194" s="4">
         <f t="shared" ref="E194" si="233">E193+1</f>
         <v>3554</v>
       </c>
       <c r="F194" s="5" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="G194" s="6"/>
     </row>
@@ -6260,21 +6239,21 @@
         <v>555</v>
       </c>
       <c r="B195" s="19" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="C195" s="4">
         <f t="shared" ref="C195" si="234">C194+1</f>
         <v>2555</v>
       </c>
       <c r="D195" s="5" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="E195" s="4">
         <f t="shared" ref="E195" si="235">E194+1</f>
         <v>3555</v>
       </c>
       <c r="F195" s="5" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="G195" s="6"/>
     </row>
@@ -6284,21 +6263,21 @@
         <v>556</v>
       </c>
       <c r="B196" s="19" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="C196" s="4">
         <f t="shared" ref="C196" si="236">C195+1</f>
         <v>2556</v>
       </c>
       <c r="D196" s="5" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="E196" s="4">
         <f t="shared" ref="E196" si="237">E195+1</f>
         <v>3556</v>
       </c>
       <c r="F196" s="5" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="G196" s="6"/>
     </row>
@@ -6308,21 +6287,21 @@
         <v>557</v>
       </c>
       <c r="B197" s="19" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="C197" s="4">
         <f t="shared" ref="C197" si="238">C196+1</f>
         <v>2557</v>
       </c>
       <c r="D197" s="5" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="E197" s="4">
         <f t="shared" ref="E197" si="239">E196+1</f>
         <v>3557</v>
       </c>
       <c r="F197" s="5" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="G197" s="6"/>
     </row>
@@ -6332,21 +6311,21 @@
         <v>558</v>
       </c>
       <c r="B198" s="19" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="C198" s="4">
         <f t="shared" ref="C198" si="240">C197+1</f>
         <v>2558</v>
       </c>
       <c r="D198" s="5" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="E198" s="4">
         <f t="shared" ref="E198" si="241">E197+1</f>
         <v>3558</v>
       </c>
       <c r="F198" s="5" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="G198" s="6"/>
     </row>
@@ -6356,21 +6335,21 @@
         <v>559</v>
       </c>
       <c r="B199" s="19" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="C199" s="4">
         <f t="shared" ref="C199" si="242">C198+1</f>
         <v>2559</v>
       </c>
       <c r="D199" s="5" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="E199" s="4">
         <f t="shared" ref="E199" si="243">E198+1</f>
         <v>3559</v>
       </c>
       <c r="F199" s="5" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="G199" s="6"/>
     </row>
@@ -6380,21 +6359,21 @@
         <v>560</v>
       </c>
       <c r="B200" s="19" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="C200" s="4">
         <f t="shared" ref="C200" si="244">C199+1</f>
         <v>2560</v>
       </c>
       <c r="D200" s="5" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="E200" s="4">
         <f t="shared" ref="E200" si="245">E199+1</f>
         <v>3560</v>
       </c>
       <c r="F200" s="5" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="G200" s="6"/>
     </row>
@@ -6404,21 +6383,21 @@
         <v>561</v>
       </c>
       <c r="B201" s="19" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="C201" s="4">
         <f t="shared" ref="C201" si="246">C200+1</f>
         <v>2561</v>
       </c>
       <c r="D201" s="5" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="E201" s="4">
         <f t="shared" ref="E201" si="247">E200+1</f>
         <v>3561</v>
       </c>
       <c r="F201" s="5" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="G201" s="6"/>
     </row>
@@ -6428,21 +6407,21 @@
         <v>562</v>
       </c>
       <c r="B202" s="19" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="C202" s="4">
         <f t="shared" ref="C202" si="248">C201+1</f>
         <v>2562</v>
       </c>
       <c r="D202" s="5" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="E202" s="4">
         <f t="shared" ref="E202" si="249">E201+1</f>
         <v>3562</v>
       </c>
       <c r="F202" s="5" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="G202" s="6"/>
     </row>
@@ -6452,21 +6431,21 @@
         <v>563</v>
       </c>
       <c r="B203" s="19" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="C203" s="4">
         <f t="shared" ref="C203" si="250">C202+1</f>
         <v>2563</v>
       </c>
       <c r="D203" s="5" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="E203" s="4">
         <f t="shared" ref="E203" si="251">E202+1</f>
         <v>3563</v>
       </c>
       <c r="F203" s="5" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="G203" s="6"/>
     </row>
@@ -6476,21 +6455,21 @@
         <v>564</v>
       </c>
       <c r="B204" s="19" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="C204" s="4">
         <f t="shared" ref="C204" si="252">C203+1</f>
         <v>2564</v>
       </c>
       <c r="D204" s="5" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="E204" s="4">
         <f t="shared" ref="E204" si="253">E203+1</f>
         <v>3564</v>
       </c>
       <c r="F204" s="5" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="G204" s="6"/>
     </row>
@@ -6500,21 +6479,21 @@
         <v>565</v>
       </c>
       <c r="B205" s="19" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="C205" s="4">
         <f t="shared" ref="C205" si="254">C204+1</f>
         <v>2565</v>
       </c>
       <c r="D205" s="5" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="E205" s="4">
-        <f t="shared" ref="E205:E221" si="255">E204+1</f>
+        <f t="shared" ref="E205" si="255">E204+1</f>
         <v>3565</v>
       </c>
       <c r="F205" s="5" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="G205" s="6"/>
     </row>
@@ -6524,7 +6503,7 @@
         <v>566</v>
       </c>
       <c r="B206" s="19" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="C206" s="4"/>
       <c r="D206" s="5"/>
@@ -6538,7 +6517,7 @@
         <v>567</v>
       </c>
       <c r="B207" s="19" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="C207" s="4"/>
       <c r="D207" s="5"/>
@@ -6552,7 +6531,7 @@
         <v>568</v>
       </c>
       <c r="B208" s="19" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="C208" s="4"/>
       <c r="D208" s="5"/>
@@ -6566,7 +6545,7 @@
         <v>569</v>
       </c>
       <c r="B209" s="19" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="C209" s="4"/>
       <c r="D209" s="5"/>
@@ -6580,7 +6559,7 @@
         <v>570</v>
       </c>
       <c r="B210" s="19" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="C210" s="4"/>
       <c r="D210" s="5"/>
@@ -6594,7 +6573,7 @@
         <v>571</v>
       </c>
       <c r="B211" s="19" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C211" s="4"/>
       <c r="D211" s="5"/>
@@ -6608,7 +6587,7 @@
         <v>572</v>
       </c>
       <c r="B212" s="19" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="C212" s="4"/>
       <c r="D212" s="5"/>
@@ -6622,7 +6601,7 @@
         <v>573</v>
       </c>
       <c r="B213" s="19" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="C213" s="4"/>
       <c r="D213" s="5"/>
@@ -6636,7 +6615,7 @@
         <v>574</v>
       </c>
       <c r="B214" s="19" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="C214" s="4"/>
       <c r="D214" s="5"/>
@@ -6650,7 +6629,7 @@
         <v>575</v>
       </c>
       <c r="B215" s="19" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="C215" s="4"/>
       <c r="D215" s="5"/>
@@ -6664,7 +6643,7 @@
         <v>576</v>
       </c>
       <c r="B216" s="19" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="C216" s="4"/>
       <c r="D216" s="5"/>
@@ -6678,7 +6657,7 @@
         <v>577</v>
       </c>
       <c r="B217" s="19" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="C217" s="4"/>
       <c r="D217" s="5"/>
@@ -6692,7 +6671,7 @@
         <v>578</v>
       </c>
       <c r="B218" s="19" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="C218" s="4"/>
       <c r="D218" s="5"/>
@@ -6706,7 +6685,7 @@
         <v>579</v>
       </c>
       <c r="B219" s="19" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="C219" s="4"/>
       <c r="D219" s="5"/>
@@ -6720,7 +6699,7 @@
         <v>580</v>
       </c>
       <c r="B220" s="19" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="C220" s="4"/>
       <c r="D220" s="5"/>
@@ -6734,7 +6713,7 @@
         <v>581</v>
       </c>
       <c r="B221" s="19" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="C221" s="4"/>
       <c r="D221" s="5"/>
@@ -6859,13 +6838,13 @@
       <c r="A227" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B227" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="C227" s="31"/>
-      <c r="D227" s="31"/>
-      <c r="E227" s="31"/>
-      <c r="F227" s="31"/>
+      <c r="B227" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="C227" s="33"/>
+      <c r="D227" s="33"/>
+      <c r="E227" s="33"/>
+      <c r="F227" s="33"/>
       <c r="G227" s="16"/>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
@@ -6873,21 +6852,21 @@
         <v>700</v>
       </c>
       <c r="B228" s="19" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C228" s="4">
         <f>C3+700</f>
         <v>2700</v>
       </c>
       <c r="D228" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E228" s="4">
         <f>E3+700</f>
         <v>3700</v>
       </c>
       <c r="F228" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G228" s="6"/>
     </row>
@@ -6897,21 +6876,21 @@
         <v>701</v>
       </c>
       <c r="B229" s="19" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C229" s="4">
         <f>C228+1</f>
         <v>2701</v>
       </c>
       <c r="D229" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E229" s="4">
         <f>E228+1</f>
         <v>3701</v>
       </c>
       <c r="F229" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G229" s="6"/>
     </row>
@@ -6921,21 +6900,21 @@
         <v>702</v>
       </c>
       <c r="B230" s="19" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C230" s="4">
         <f t="shared" ref="C230:C293" si="263">C229+1</f>
         <v>2702</v>
       </c>
       <c r="D230" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E230" s="4">
         <f t="shared" ref="E230:E293" si="264">E229+1</f>
         <v>3702</v>
       </c>
       <c r="F230" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G230" s="6"/>
     </row>
@@ -6945,21 +6924,21 @@
         <v>703</v>
       </c>
       <c r="B231" s="19" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C231" s="4">
         <f t="shared" si="263"/>
         <v>2703</v>
       </c>
       <c r="D231" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E231" s="4">
         <f t="shared" si="264"/>
         <v>3703</v>
       </c>
       <c r="F231" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G231" s="6"/>
     </row>
@@ -6969,21 +6948,21 @@
         <v>704</v>
       </c>
       <c r="B232" s="19" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C232" s="4">
         <f t="shared" si="263"/>
         <v>2704</v>
       </c>
       <c r="D232" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E232" s="4">
         <f t="shared" si="264"/>
         <v>3704</v>
       </c>
       <c r="F232" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G232" s="6"/>
     </row>
@@ -6993,21 +6972,21 @@
         <v>705</v>
       </c>
       <c r="B233" s="19" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C233" s="4">
         <f t="shared" si="263"/>
         <v>2705</v>
       </c>
       <c r="D233" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E233" s="4">
         <f t="shared" si="264"/>
         <v>3705</v>
       </c>
       <c r="F233" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G233" s="6"/>
     </row>
@@ -7017,7 +6996,7 @@
         <v>706</v>
       </c>
       <c r="B234" s="19" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C234" s="4">
         <f t="shared" si="263"/>
@@ -7041,21 +7020,21 @@
         <v>707</v>
       </c>
       <c r="B235" s="19" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C235" s="4">
         <f t="shared" si="263"/>
         <v>2707</v>
       </c>
       <c r="D235" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E235" s="4">
         <f t="shared" si="264"/>
         <v>3707</v>
       </c>
       <c r="F235" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G235" s="6"/>
     </row>
@@ -7065,21 +7044,21 @@
         <v>708</v>
       </c>
       <c r="B236" s="19" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C236" s="4">
         <f t="shared" si="263"/>
         <v>2708</v>
       </c>
       <c r="D236" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E236" s="4">
         <f t="shared" si="264"/>
         <v>3708</v>
       </c>
       <c r="F236" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G236" s="6"/>
     </row>
@@ -7089,7 +7068,7 @@
         <v>709</v>
       </c>
       <c r="B237" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C237" s="4">
         <f t="shared" si="263"/>
@@ -7113,7 +7092,7 @@
         <v>710</v>
       </c>
       <c r="B238" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C238" s="4">
         <f t="shared" si="263"/>
@@ -7137,7 +7116,7 @@
         <v>711</v>
       </c>
       <c r="B239" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C239" s="4">
         <f t="shared" si="263"/>
@@ -7161,21 +7140,21 @@
         <v>712</v>
       </c>
       <c r="B240" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C240" s="4">
         <f t="shared" si="263"/>
         <v>2712</v>
       </c>
       <c r="D240" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E240" s="4">
         <f t="shared" si="264"/>
         <v>3712</v>
       </c>
       <c r="F240" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G240" s="6"/>
     </row>
@@ -7185,21 +7164,21 @@
         <v>713</v>
       </c>
       <c r="B241" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C241" s="4">
         <f t="shared" si="263"/>
         <v>2713</v>
       </c>
       <c r="D241" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E241" s="4">
         <f t="shared" si="264"/>
         <v>3713</v>
       </c>
       <c r="F241" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G241" s="6"/>
     </row>
@@ -7209,21 +7188,21 @@
         <v>714</v>
       </c>
       <c r="B242" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C242" s="4">
         <f t="shared" si="263"/>
         <v>2714</v>
       </c>
       <c r="D242" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E242" s="4">
         <f t="shared" si="264"/>
         <v>3714</v>
       </c>
       <c r="F242" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G242" s="6"/>
     </row>
@@ -7233,21 +7212,21 @@
         <v>715</v>
       </c>
       <c r="B243" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C243" s="4">
         <f t="shared" si="263"/>
         <v>2715</v>
       </c>
       <c r="D243" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E243" s="4">
         <f t="shared" si="264"/>
         <v>3715</v>
       </c>
       <c r="F243" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G243" s="6"/>
     </row>
@@ -7257,21 +7236,21 @@
         <v>716</v>
       </c>
       <c r="B244" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C244" s="4">
         <f t="shared" si="263"/>
         <v>2716</v>
       </c>
       <c r="D244" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E244" s="4">
         <f t="shared" si="264"/>
         <v>3716</v>
       </c>
       <c r="F244" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G244" s="6"/>
     </row>
@@ -7281,21 +7260,21 @@
         <v>717</v>
       </c>
       <c r="B245" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C245" s="4">
         <f t="shared" si="263"/>
         <v>2717</v>
       </c>
       <c r="D245" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E245" s="4">
         <f t="shared" si="264"/>
         <v>3717</v>
       </c>
       <c r="F245" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G245" s="6"/>
     </row>
@@ -7305,21 +7284,21 @@
         <v>718</v>
       </c>
       <c r="B246" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C246" s="4">
         <f t="shared" si="263"/>
         <v>2718</v>
       </c>
       <c r="D246" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E246" s="4">
         <f t="shared" si="264"/>
         <v>3718</v>
       </c>
       <c r="F246" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G246" s="6"/>
     </row>
@@ -7329,21 +7308,21 @@
         <v>719</v>
       </c>
       <c r="B247" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C247" s="4">
         <f t="shared" si="263"/>
         <v>2719</v>
       </c>
       <c r="D247" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E247" s="4">
         <f t="shared" si="264"/>
         <v>3719</v>
       </c>
       <c r="F247" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G247" s="6"/>
     </row>
@@ -7353,21 +7332,21 @@
         <v>720</v>
       </c>
       <c r="B248" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C248" s="4">
         <f t="shared" si="263"/>
         <v>2720</v>
       </c>
       <c r="D248" s="5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E248" s="4">
         <f t="shared" si="264"/>
         <v>3720</v>
       </c>
       <c r="F248" s="5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G248" s="6"/>
     </row>
@@ -7377,21 +7356,21 @@
         <v>721</v>
       </c>
       <c r="B249" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C249" s="4">
         <f t="shared" si="263"/>
         <v>2721</v>
       </c>
       <c r="D249" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E249" s="4">
         <f t="shared" si="264"/>
         <v>3721</v>
       </c>
       <c r="F249" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G249" s="6"/>
     </row>
@@ -7401,21 +7380,21 @@
         <v>722</v>
       </c>
       <c r="B250" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C250" s="4">
         <f t="shared" si="263"/>
         <v>2722</v>
       </c>
       <c r="D250" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E250" s="4">
         <f t="shared" si="264"/>
         <v>3722</v>
       </c>
       <c r="F250" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G250" s="6"/>
     </row>
@@ -7425,21 +7404,21 @@
         <v>723</v>
       </c>
       <c r="B251" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C251" s="4">
         <f t="shared" si="263"/>
         <v>2723</v>
       </c>
       <c r="D251" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E251" s="4">
         <f t="shared" si="264"/>
         <v>3723</v>
       </c>
       <c r="F251" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G251" s="6"/>
     </row>
@@ -7449,21 +7428,21 @@
         <v>724</v>
       </c>
       <c r="B252" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C252" s="4">
         <f t="shared" si="263"/>
         <v>2724</v>
       </c>
       <c r="D252" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E252" s="4">
         <f t="shared" si="264"/>
         <v>3724</v>
       </c>
       <c r="F252" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G252" s="6"/>
     </row>
@@ -7473,21 +7452,21 @@
         <v>725</v>
       </c>
       <c r="B253" s="19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C253" s="4">
         <f t="shared" si="263"/>
         <v>2725</v>
       </c>
       <c r="D253" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E253" s="4">
         <f t="shared" si="264"/>
         <v>3725</v>
       </c>
       <c r="F253" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G253" s="6"/>
     </row>
@@ -7497,21 +7476,21 @@
         <v>726</v>
       </c>
       <c r="B254" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C254" s="4">
         <f t="shared" si="263"/>
         <v>2726</v>
       </c>
       <c r="D254" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E254" s="4">
         <f t="shared" si="264"/>
         <v>3726</v>
       </c>
       <c r="F254" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G254" s="6"/>
     </row>
@@ -7521,21 +7500,21 @@
         <v>727</v>
       </c>
       <c r="B255" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C255" s="4">
         <f t="shared" si="263"/>
         <v>2727</v>
       </c>
       <c r="D255" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E255" s="4">
         <f t="shared" si="264"/>
         <v>3727</v>
       </c>
       <c r="F255" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G255" s="6"/>
     </row>
@@ -7545,21 +7524,21 @@
         <v>728</v>
       </c>
       <c r="B256" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C256" s="4">
         <f t="shared" si="263"/>
         <v>2728</v>
       </c>
       <c r="D256" s="5" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E256" s="4">
         <f t="shared" si="264"/>
         <v>3728</v>
       </c>
       <c r="F256" s="5" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="G256" s="6"/>
     </row>
@@ -7569,21 +7548,21 @@
         <v>729</v>
       </c>
       <c r="B257" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C257" s="4">
         <f t="shared" si="263"/>
         <v>2729</v>
       </c>
       <c r="D257" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E257" s="4">
         <f t="shared" si="264"/>
         <v>3729</v>
       </c>
       <c r="F257" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G257" s="6"/>
     </row>
@@ -7593,21 +7572,21 @@
         <v>730</v>
       </c>
       <c r="B258" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C258" s="4">
         <f t="shared" si="263"/>
         <v>2730</v>
       </c>
       <c r="D258" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E258" s="4">
         <f t="shared" si="264"/>
         <v>3730</v>
       </c>
       <c r="F258" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G258" s="6"/>
     </row>
@@ -7617,21 +7596,21 @@
         <v>731</v>
       </c>
       <c r="B259" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C259" s="4">
         <f t="shared" si="263"/>
         <v>2731</v>
       </c>
       <c r="D259" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E259" s="4">
         <f t="shared" si="264"/>
         <v>3731</v>
       </c>
       <c r="F259" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G259" s="6"/>
     </row>
@@ -7641,21 +7620,21 @@
         <v>732</v>
       </c>
       <c r="B260" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C260" s="4">
         <f t="shared" si="263"/>
         <v>2732</v>
       </c>
       <c r="D260" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E260" s="4">
         <f t="shared" si="264"/>
         <v>3732</v>
       </c>
       <c r="F260" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G260" s="6"/>
     </row>
@@ -7665,21 +7644,21 @@
         <v>733</v>
       </c>
       <c r="B261" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C261" s="4">
         <f t="shared" si="263"/>
         <v>2733</v>
       </c>
       <c r="D261" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E261" s="4">
         <f t="shared" si="264"/>
         <v>3733</v>
       </c>
       <c r="F261" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G261" s="6"/>
     </row>
@@ -7689,21 +7668,21 @@
         <v>734</v>
       </c>
       <c r="B262" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C262" s="4">
         <f t="shared" si="263"/>
         <v>2734</v>
       </c>
       <c r="D262" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E262" s="4">
         <f t="shared" si="264"/>
         <v>3734</v>
       </c>
       <c r="F262" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G262" s="6"/>
     </row>
@@ -7713,21 +7692,21 @@
         <v>735</v>
       </c>
       <c r="B263" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C263" s="4">
         <f t="shared" si="263"/>
         <v>2735</v>
       </c>
       <c r="D263" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E263" s="4">
         <f t="shared" si="264"/>
         <v>3735</v>
       </c>
       <c r="F263" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G263" s="6"/>
     </row>
@@ -7737,21 +7716,21 @@
         <v>736</v>
       </c>
       <c r="B264" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C264" s="4">
         <f t="shared" si="263"/>
         <v>2736</v>
       </c>
       <c r="D264" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E264" s="4">
         <f t="shared" si="264"/>
         <v>3736</v>
       </c>
       <c r="F264" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G264" s="6"/>
     </row>
@@ -7761,7 +7740,7 @@
         <v>737</v>
       </c>
       <c r="B265" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C265" s="4">
         <f t="shared" si="263"/>
@@ -7785,7 +7764,7 @@
         <v>738</v>
       </c>
       <c r="B266" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C266" s="4">
         <f t="shared" si="263"/>
@@ -7809,7 +7788,7 @@
         <v>739</v>
       </c>
       <c r="B267" s="19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C267" s="4">
         <f t="shared" si="263"/>
@@ -7833,21 +7812,21 @@
         <v>740</v>
       </c>
       <c r="B268" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C268" s="4">
         <f t="shared" si="263"/>
         <v>2740</v>
       </c>
       <c r="D268" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E268" s="4">
         <f t="shared" si="264"/>
         <v>3740</v>
       </c>
       <c r="F268" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G268" s="6"/>
     </row>
@@ -7857,21 +7836,21 @@
         <v>741</v>
       </c>
       <c r="B269" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C269" s="4">
         <f t="shared" si="263"/>
         <v>2741</v>
       </c>
       <c r="D269" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E269" s="4">
         <f t="shared" si="264"/>
         <v>3741</v>
       </c>
       <c r="F269" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G269" s="6"/>
     </row>
@@ -7881,21 +7860,21 @@
         <v>742</v>
       </c>
       <c r="B270" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C270" s="4">
         <f t="shared" si="263"/>
         <v>2742</v>
       </c>
       <c r="D270" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E270" s="4">
         <f t="shared" si="264"/>
         <v>3742</v>
       </c>
       <c r="F270" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G270" s="6"/>
     </row>
@@ -7905,21 +7884,21 @@
         <v>743</v>
       </c>
       <c r="B271" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C271" s="4">
         <f t="shared" si="263"/>
         <v>2743</v>
       </c>
       <c r="D271" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E271" s="4">
         <f t="shared" si="264"/>
         <v>3743</v>
       </c>
       <c r="F271" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G271" s="6"/>
     </row>
@@ -7929,21 +7908,21 @@
         <v>744</v>
       </c>
       <c r="B272" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C272" s="4">
         <f t="shared" si="263"/>
         <v>2744</v>
       </c>
       <c r="D272" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E272" s="4">
         <f t="shared" si="264"/>
         <v>3744</v>
       </c>
       <c r="F272" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G272" s="6"/>
     </row>
@@ -7953,21 +7932,21 @@
         <v>745</v>
       </c>
       <c r="B273" s="19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C273" s="4">
         <f t="shared" si="263"/>
         <v>2745</v>
       </c>
       <c r="D273" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E273" s="4">
         <f t="shared" si="264"/>
         <v>3745</v>
       </c>
       <c r="F273" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G273" s="6"/>
     </row>
@@ -7977,21 +7956,21 @@
         <v>746</v>
       </c>
       <c r="B274" s="19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C274" s="4">
         <f t="shared" si="263"/>
         <v>2746</v>
       </c>
       <c r="D274" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E274" s="4">
         <f t="shared" si="264"/>
         <v>3746</v>
       </c>
       <c r="F274" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G274" s="6"/>
     </row>
@@ -8001,21 +7980,21 @@
         <v>747</v>
       </c>
       <c r="B275" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C275" s="4">
         <f t="shared" si="263"/>
         <v>2747</v>
       </c>
       <c r="D275" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E275" s="4">
         <f t="shared" si="264"/>
         <v>3747</v>
       </c>
       <c r="F275" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G275" s="6"/>
     </row>
@@ -8025,21 +8004,21 @@
         <v>748</v>
       </c>
       <c r="B276" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C276" s="4">
         <f t="shared" si="263"/>
         <v>2748</v>
       </c>
       <c r="D276" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E276" s="4">
         <f t="shared" si="264"/>
         <v>3748</v>
       </c>
       <c r="F276" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G276" s="6"/>
     </row>
@@ -8049,21 +8028,21 @@
         <v>749</v>
       </c>
       <c r="B277" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C277" s="4">
         <f t="shared" si="263"/>
         <v>2749</v>
       </c>
       <c r="D277" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E277" s="4">
         <f t="shared" si="264"/>
         <v>3749</v>
       </c>
       <c r="F277" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G277" s="6"/>
     </row>
@@ -8073,21 +8052,21 @@
         <v>750</v>
       </c>
       <c r="B278" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C278" s="4">
         <f t="shared" si="263"/>
         <v>2750</v>
       </c>
       <c r="D278" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E278" s="4">
         <f t="shared" si="264"/>
         <v>3750</v>
       </c>
       <c r="F278" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G278" s="6"/>
     </row>
@@ -8097,21 +8076,21 @@
         <v>751</v>
       </c>
       <c r="B279" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C279" s="4">
         <f t="shared" si="263"/>
         <v>2751</v>
       </c>
       <c r="D279" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E279" s="4">
         <f t="shared" si="264"/>
         <v>3751</v>
       </c>
       <c r="F279" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G279" s="6"/>
     </row>
@@ -8121,21 +8100,21 @@
         <v>752</v>
       </c>
       <c r="B280" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C280" s="4">
         <f t="shared" si="263"/>
         <v>2752</v>
       </c>
       <c r="D280" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E280" s="4">
         <f t="shared" si="264"/>
         <v>3752</v>
       </c>
       <c r="F280" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G280" s="6"/>
     </row>
@@ -8145,21 +8124,21 @@
         <v>753</v>
       </c>
       <c r="B281" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C281" s="4">
         <f t="shared" si="263"/>
         <v>2753</v>
       </c>
       <c r="D281" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E281" s="4">
         <f t="shared" si="264"/>
         <v>3753</v>
       </c>
       <c r="F281" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G281" s="6"/>
     </row>
@@ -8169,21 +8148,21 @@
         <v>754</v>
       </c>
       <c r="B282" s="19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C282" s="4">
         <f t="shared" si="263"/>
         <v>2754</v>
       </c>
       <c r="D282" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E282" s="4">
         <f t="shared" si="264"/>
         <v>3754</v>
       </c>
       <c r="F282" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G282" s="6"/>
     </row>
@@ -8193,21 +8172,21 @@
         <v>755</v>
       </c>
       <c r="B283" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C283" s="4">
         <f t="shared" si="263"/>
         <v>2755</v>
       </c>
       <c r="D283" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E283" s="4">
         <f t="shared" si="264"/>
         <v>3755</v>
       </c>
       <c r="F283" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G283" s="6"/>
     </row>
@@ -8217,7 +8196,7 @@
         <v>756</v>
       </c>
       <c r="B284" s="19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C284" s="4">
         <f t="shared" si="263"/>
@@ -8241,7 +8220,7 @@
         <v>757</v>
       </c>
       <c r="B285" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C285" s="4">
         <f t="shared" si="263"/>
@@ -8265,7 +8244,7 @@
         <v>758</v>
       </c>
       <c r="B286" s="19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C286" s="4">
         <f t="shared" si="263"/>
@@ -8289,7 +8268,7 @@
         <v>759</v>
       </c>
       <c r="B287" s="19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C287" s="4">
         <f t="shared" si="263"/>
@@ -8313,7 +8292,7 @@
         <v>760</v>
       </c>
       <c r="B288" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C288" s="4">
         <f t="shared" si="263"/>
@@ -8337,7 +8316,7 @@
         <v>761</v>
       </c>
       <c r="B289" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C289" s="4">
         <f t="shared" si="263"/>
@@ -8361,7 +8340,7 @@
         <v>762</v>
       </c>
       <c r="B290" s="19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C290" s="4">
         <f t="shared" si="263"/>
@@ -8385,7 +8364,7 @@
         <v>763</v>
       </c>
       <c r="B291" s="19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C291" s="4">
         <f t="shared" si="263"/>
@@ -8409,7 +8388,7 @@
         <v>764</v>
       </c>
       <c r="B292" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C292" s="4">
         <f t="shared" si="263"/>
@@ -8433,7 +8412,7 @@
         <v>765</v>
       </c>
       <c r="B293" s="19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C293" s="4">
         <f t="shared" si="263"/>
@@ -8457,7 +8436,7 @@
         <v>766</v>
       </c>
       <c r="B294" s="19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C294" s="4">
         <f t="shared" ref="C294:C357" si="266">C293+1</f>
@@ -8481,7 +8460,7 @@
         <v>767</v>
       </c>
       <c r="B295" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C295" s="4">
         <f t="shared" si="266"/>
@@ -8505,7 +8484,7 @@
         <v>768</v>
       </c>
       <c r="B296" s="19" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C296" s="4">
         <f t="shared" si="266"/>
@@ -8529,7 +8508,7 @@
         <v>769</v>
       </c>
       <c r="B297" s="19" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C297" s="4">
         <f t="shared" si="266"/>
@@ -8553,7 +8532,7 @@
         <v>770</v>
       </c>
       <c r="B298" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C298" s="4">
         <f t="shared" si="266"/>
@@ -8577,7 +8556,7 @@
         <v>771</v>
       </c>
       <c r="B299" s="19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C299" s="4">
         <f t="shared" si="266"/>
@@ -8601,21 +8580,21 @@
         <v>772</v>
       </c>
       <c r="B300" s="19" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C300" s="4">
         <f t="shared" si="266"/>
         <v>2772</v>
       </c>
       <c r="D300" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E300" s="4">
         <f t="shared" si="267"/>
         <v>3772</v>
       </c>
       <c r="F300" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G300" s="6"/>
     </row>
@@ -8625,21 +8604,21 @@
         <v>773</v>
       </c>
       <c r="B301" s="19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C301" s="4">
         <f t="shared" si="266"/>
         <v>2773</v>
       </c>
       <c r="D301" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E301" s="4">
         <f t="shared" si="267"/>
         <v>3773</v>
       </c>
       <c r="F301" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G301" s="6"/>
     </row>
@@ -8649,21 +8628,21 @@
         <v>774</v>
       </c>
       <c r="B302" s="19" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C302" s="4">
         <f t="shared" si="266"/>
         <v>2774</v>
       </c>
       <c r="D302" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E302" s="4">
         <f t="shared" si="267"/>
         <v>3774</v>
       </c>
       <c r="F302" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G302" s="6"/>
     </row>
@@ -8673,21 +8652,21 @@
         <v>775</v>
       </c>
       <c r="B303" s="19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C303" s="4">
         <f t="shared" si="266"/>
         <v>2775</v>
       </c>
       <c r="D303" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E303" s="4">
         <f t="shared" si="267"/>
         <v>3775</v>
       </c>
       <c r="F303" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G303" s="6"/>
     </row>
@@ -8697,21 +8676,21 @@
         <v>776</v>
       </c>
       <c r="B304" s="19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C304" s="4">
         <f t="shared" si="266"/>
         <v>2776</v>
       </c>
       <c r="D304" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E304" s="4">
         <f t="shared" si="267"/>
         <v>3776</v>
       </c>
       <c r="F304" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G304" s="6"/>
     </row>
@@ -8721,21 +8700,21 @@
         <v>777</v>
       </c>
       <c r="B305" s="19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C305" s="4">
         <f t="shared" si="266"/>
         <v>2777</v>
       </c>
       <c r="D305" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E305" s="4">
         <f t="shared" si="267"/>
         <v>3777</v>
       </c>
       <c r="F305" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G305" s="6"/>
     </row>
@@ -8745,21 +8724,21 @@
         <v>778</v>
       </c>
       <c r="B306" s="19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C306" s="4">
         <f t="shared" si="266"/>
         <v>2778</v>
       </c>
       <c r="D306" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E306" s="4">
         <f t="shared" si="267"/>
         <v>3778</v>
       </c>
       <c r="F306" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G306" s="6"/>
     </row>
@@ -8769,21 +8748,21 @@
         <v>779</v>
       </c>
       <c r="B307" s="19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C307" s="4">
         <f t="shared" si="266"/>
         <v>2779</v>
       </c>
       <c r="D307" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E307" s="4">
         <f t="shared" si="267"/>
         <v>3779</v>
       </c>
       <c r="F307" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G307" s="6"/>
     </row>
@@ -8793,21 +8772,21 @@
         <v>780</v>
       </c>
       <c r="B308" s="19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C308" s="4">
         <f t="shared" si="266"/>
         <v>2780</v>
       </c>
       <c r="D308" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E308" s="4">
         <f t="shared" si="267"/>
         <v>3780</v>
       </c>
       <c r="F308" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G308" s="6"/>
     </row>
@@ -8817,21 +8796,21 @@
         <v>781</v>
       </c>
       <c r="B309" s="19" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C309" s="4">
         <f t="shared" si="266"/>
         <v>2781</v>
       </c>
       <c r="D309" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E309" s="4">
         <f t="shared" si="267"/>
         <v>3781</v>
       </c>
       <c r="F309" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G309" s="6"/>
     </row>
@@ -8841,21 +8820,21 @@
         <v>782</v>
       </c>
       <c r="B310" s="19" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C310" s="4">
         <f t="shared" si="266"/>
         <v>2782</v>
       </c>
       <c r="D310" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E310" s="4">
         <f t="shared" si="267"/>
         <v>3782</v>
       </c>
       <c r="F310" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G310" s="6"/>
     </row>
@@ -8865,21 +8844,21 @@
         <v>783</v>
       </c>
       <c r="B311" s="19" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C311" s="4">
         <f t="shared" si="266"/>
         <v>2783</v>
       </c>
       <c r="D311" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E311" s="4">
         <f t="shared" si="267"/>
         <v>3783</v>
       </c>
       <c r="F311" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G311" s="6"/>
     </row>
@@ -8889,21 +8868,21 @@
         <v>784</v>
       </c>
       <c r="B312" s="19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C312" s="4">
         <f t="shared" si="266"/>
         <v>2784</v>
       </c>
       <c r="D312" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E312" s="4">
         <f t="shared" si="267"/>
         <v>3784</v>
       </c>
       <c r="F312" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G312" s="6"/>
     </row>
@@ -8913,21 +8892,21 @@
         <v>785</v>
       </c>
       <c r="B313" s="19" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C313" s="4">
         <f t="shared" si="266"/>
         <v>2785</v>
       </c>
       <c r="D313" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E313" s="4">
         <f t="shared" si="267"/>
         <v>3785</v>
       </c>
       <c r="F313" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G313" s="6"/>
     </row>
@@ -8937,21 +8916,21 @@
         <v>786</v>
       </c>
       <c r="B314" s="19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C314" s="4">
         <f t="shared" si="266"/>
         <v>2786</v>
       </c>
       <c r="D314" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E314" s="4">
         <f t="shared" si="267"/>
         <v>3786</v>
       </c>
       <c r="F314" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G314" s="6"/>
     </row>
@@ -8961,21 +8940,21 @@
         <v>787</v>
       </c>
       <c r="B315" s="19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C315" s="4">
         <f t="shared" si="266"/>
         <v>2787</v>
       </c>
       <c r="D315" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E315" s="4">
         <f t="shared" si="267"/>
         <v>3787</v>
       </c>
       <c r="F315" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G315" s="6"/>
     </row>
@@ -8985,7 +8964,7 @@
         <v>788</v>
       </c>
       <c r="B316" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C316" s="4">
         <f t="shared" si="266"/>
@@ -9009,7 +8988,7 @@
         <v>789</v>
       </c>
       <c r="B317" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C317" s="4">
         <f t="shared" si="266"/>
@@ -9033,7 +9012,7 @@
         <v>790</v>
       </c>
       <c r="B318" s="19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C318" s="4">
         <f t="shared" si="266"/>
@@ -9057,7 +9036,7 @@
         <v>791</v>
       </c>
       <c r="B319" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C319" s="4">
         <f t="shared" si="266"/>
@@ -9081,7 +9060,7 @@
         <v>792</v>
       </c>
       <c r="B320" s="19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C320" s="4">
         <f t="shared" si="266"/>
@@ -9105,7 +9084,7 @@
         <v>793</v>
       </c>
       <c r="B321" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C321" s="4">
         <f t="shared" si="266"/>
@@ -9129,7 +9108,7 @@
         <v>794</v>
       </c>
       <c r="B322" s="19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C322" s="4">
         <f t="shared" si="266"/>
@@ -9153,7 +9132,7 @@
         <v>795</v>
       </c>
       <c r="B323" s="19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C323" s="4">
         <f t="shared" si="266"/>
@@ -9177,7 +9156,7 @@
         <v>796</v>
       </c>
       <c r="B324" s="19" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C324" s="4">
         <f t="shared" si="266"/>
@@ -9201,7 +9180,7 @@
         <v>797</v>
       </c>
       <c r="B325" s="19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C325" s="4">
         <f t="shared" si="266"/>
@@ -9225,7 +9204,7 @@
         <v>798</v>
       </c>
       <c r="B326" s="19" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C326" s="4">
         <f t="shared" si="266"/>
@@ -9249,7 +9228,7 @@
         <v>799</v>
       </c>
       <c r="B327" s="19" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C327" s="4">
         <f t="shared" si="266"/>
@@ -9273,7 +9252,7 @@
         <v>800</v>
       </c>
       <c r="B328" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C328" s="4">
         <f t="shared" si="266"/>
@@ -9297,7 +9276,7 @@
         <v>801</v>
       </c>
       <c r="B329" s="19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C329" s="4">
         <f t="shared" si="266"/>
@@ -9321,7 +9300,7 @@
         <v>802</v>
       </c>
       <c r="B330" s="19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C330" s="4">
         <f t="shared" si="266"/>
@@ -9345,7 +9324,7 @@
         <v>803</v>
       </c>
       <c r="B331" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C331" s="4">
         <f t="shared" si="266"/>
@@ -9369,21 +9348,21 @@
         <v>804</v>
       </c>
       <c r="B332" s="19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C332" s="4">
         <f t="shared" si="266"/>
         <v>2804</v>
       </c>
       <c r="D332" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E332" s="4">
         <f t="shared" si="267"/>
         <v>3804</v>
       </c>
       <c r="F332" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G332" s="6"/>
     </row>
@@ -9393,21 +9372,21 @@
         <v>805</v>
       </c>
       <c r="B333" s="19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C333" s="4">
         <f t="shared" si="266"/>
         <v>2805</v>
       </c>
       <c r="D333" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E333" s="4">
         <f t="shared" si="267"/>
         <v>3805</v>
       </c>
       <c r="F333" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G333" s="6"/>
     </row>
@@ -9417,21 +9396,21 @@
         <v>806</v>
       </c>
       <c r="B334" s="19" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C334" s="4">
         <f t="shared" si="266"/>
         <v>2806</v>
       </c>
       <c r="D334" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E334" s="4">
         <f t="shared" si="267"/>
         <v>3806</v>
       </c>
       <c r="F334" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G334" s="6"/>
     </row>
@@ -9441,21 +9420,21 @@
         <v>807</v>
       </c>
       <c r="B335" s="19" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C335" s="4">
         <f t="shared" si="266"/>
         <v>2807</v>
       </c>
       <c r="D335" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E335" s="4">
         <f t="shared" si="267"/>
         <v>3807</v>
       </c>
       <c r="F335" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G335" s="6"/>
     </row>
@@ -9465,21 +9444,21 @@
         <v>808</v>
       </c>
       <c r="B336" s="19" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C336" s="4">
         <f t="shared" si="266"/>
         <v>2808</v>
       </c>
       <c r="D336" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E336" s="4">
         <f t="shared" si="267"/>
         <v>3808</v>
       </c>
       <c r="F336" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G336" s="6"/>
     </row>
@@ -9489,21 +9468,21 @@
         <v>809</v>
       </c>
       <c r="B337" s="19" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C337" s="4">
         <f t="shared" si="266"/>
         <v>2809</v>
       </c>
       <c r="D337" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E337" s="4">
         <f t="shared" si="267"/>
         <v>3809</v>
       </c>
       <c r="F337" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G337" s="6"/>
     </row>
@@ -9513,21 +9492,21 @@
         <v>810</v>
       </c>
       <c r="B338" s="19" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C338" s="4">
         <f t="shared" si="266"/>
         <v>2810</v>
       </c>
       <c r="D338" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E338" s="4">
         <f t="shared" si="267"/>
         <v>3810</v>
       </c>
       <c r="F338" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G338" s="6"/>
     </row>
@@ -9537,21 +9516,21 @@
         <v>811</v>
       </c>
       <c r="B339" s="19" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C339" s="4">
         <f t="shared" si="266"/>
         <v>2811</v>
       </c>
       <c r="D339" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E339" s="4">
         <f t="shared" si="267"/>
         <v>3811</v>
       </c>
       <c r="F339" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G339" s="6"/>
     </row>
@@ -9561,21 +9540,21 @@
         <v>812</v>
       </c>
       <c r="B340" s="19" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C340" s="4">
         <f t="shared" si="266"/>
         <v>2812</v>
       </c>
       <c r="D340" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E340" s="4">
         <f t="shared" si="267"/>
         <v>3812</v>
       </c>
       <c r="F340" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G340" s="6"/>
     </row>
@@ -9585,21 +9564,21 @@
         <v>813</v>
       </c>
       <c r="B341" s="19" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C341" s="4">
         <f t="shared" si="266"/>
         <v>2813</v>
       </c>
       <c r="D341" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E341" s="4">
         <f t="shared" si="267"/>
         <v>3813</v>
       </c>
       <c r="F341" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G341" s="6"/>
     </row>
@@ -9609,21 +9588,21 @@
         <v>814</v>
       </c>
       <c r="B342" s="19" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C342" s="4">
         <f t="shared" si="266"/>
         <v>2814</v>
       </c>
       <c r="D342" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E342" s="4">
         <f t="shared" si="267"/>
         <v>3814</v>
       </c>
       <c r="F342" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G342" s="6"/>
     </row>
@@ -9633,21 +9612,21 @@
         <v>815</v>
       </c>
       <c r="B343" s="19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C343" s="4">
         <f t="shared" si="266"/>
         <v>2815</v>
       </c>
       <c r="D343" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E343" s="4">
         <f t="shared" si="267"/>
         <v>3815</v>
       </c>
       <c r="F343" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G343" s="6"/>
     </row>
@@ -9657,21 +9636,21 @@
         <v>816</v>
       </c>
       <c r="B344" s="19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C344" s="4">
         <f t="shared" si="266"/>
         <v>2816</v>
       </c>
       <c r="D344" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E344" s="4">
         <f t="shared" si="267"/>
         <v>3816</v>
       </c>
       <c r="F344" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G344" s="6"/>
     </row>
@@ -9681,21 +9660,21 @@
         <v>817</v>
       </c>
       <c r="B345" s="19" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C345" s="4">
         <f t="shared" si="266"/>
         <v>2817</v>
       </c>
       <c r="D345" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E345" s="4">
         <f t="shared" si="267"/>
         <v>3817</v>
       </c>
       <c r="F345" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G345" s="6"/>
     </row>
@@ -9705,21 +9684,21 @@
         <v>818</v>
       </c>
       <c r="B346" s="19" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C346" s="4">
         <f t="shared" si="266"/>
         <v>2818</v>
       </c>
       <c r="D346" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E346" s="4">
         <f t="shared" si="267"/>
         <v>3818</v>
       </c>
       <c r="F346" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G346" s="6"/>
     </row>
@@ -9729,21 +9708,21 @@
         <v>819</v>
       </c>
       <c r="B347" s="19" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C347" s="4">
         <f t="shared" si="266"/>
         <v>2819</v>
       </c>
       <c r="D347" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E347" s="4">
         <f t="shared" si="267"/>
         <v>3819</v>
       </c>
       <c r="F347" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G347" s="6"/>
     </row>
@@ -9753,7 +9732,7 @@
         <v>820</v>
       </c>
       <c r="B348" s="19" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C348" s="4">
         <f t="shared" si="266"/>
@@ -9777,7 +9756,7 @@
         <v>821</v>
       </c>
       <c r="B349" s="19" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C349" s="4">
         <f t="shared" si="266"/>
@@ -9801,7 +9780,7 @@
         <v>822</v>
       </c>
       <c r="B350" s="19" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C350" s="4">
         <f t="shared" si="266"/>
@@ -9825,7 +9804,7 @@
         <v>823</v>
       </c>
       <c r="B351" s="19" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C351" s="4">
         <f t="shared" si="266"/>
@@ -9849,7 +9828,7 @@
         <v>824</v>
       </c>
       <c r="B352" s="19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C352" s="4">
         <f t="shared" si="266"/>
@@ -9873,7 +9852,7 @@
         <v>825</v>
       </c>
       <c r="B353" s="19" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C353" s="4">
         <f t="shared" si="266"/>
@@ -9897,7 +9876,7 @@
         <v>826</v>
       </c>
       <c r="B354" s="19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C354" s="4">
         <f t="shared" si="266"/>
@@ -9921,7 +9900,7 @@
         <v>827</v>
       </c>
       <c r="B355" s="19" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C355" s="4">
         <f t="shared" si="266"/>
@@ -9945,7 +9924,7 @@
         <v>828</v>
       </c>
       <c r="B356" s="19" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C356" s="4">
         <f t="shared" si="266"/>
@@ -9969,7 +9948,7 @@
         <v>829</v>
       </c>
       <c r="B357" s="19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C357" s="4">
         <f t="shared" si="266"/>
@@ -9993,7 +9972,7 @@
         <v>830</v>
       </c>
       <c r="B358" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C358" s="4">
         <f t="shared" ref="C358:C363" si="269">C357+1</f>
@@ -10017,7 +9996,7 @@
         <v>831</v>
       </c>
       <c r="B359" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C359" s="4">
         <f t="shared" si="269"/>
@@ -10041,7 +10020,7 @@
         <v>832</v>
       </c>
       <c r="B360" s="19" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C360" s="4">
         <f t="shared" si="269"/>
@@ -10065,7 +10044,7 @@
         <v>833</v>
       </c>
       <c r="B361" s="19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C361" s="4">
         <f t="shared" si="269"/>
@@ -10089,7 +10068,7 @@
         <v>834</v>
       </c>
       <c r="B362" s="19" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C362" s="4">
         <f t="shared" si="269"/>
@@ -10113,7 +10092,7 @@
         <v>835</v>
       </c>
       <c r="B363" s="19" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C363" s="4">
         <f t="shared" si="269"/>
